--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/importing_port_details.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/importing_port_details.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,56 +1378,46 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="B17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="C17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="D17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="E17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="F17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="G17" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RMB</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>12342</v>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
-        <v>197</v>
-      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
     </row>
@@ -1488,56 +1478,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="B19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="C19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="D19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="E19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="F19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="G19" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>RMB</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>12342</v>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
-      <c r="U19" t="n">
-        <v>197</v>
-      </c>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
     </row>
@@ -1598,56 +1578,46 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="B21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="C21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="D21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="E21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="F21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="G21" t="n">
-        <v>42500</v>
+        <v>30000</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>RMB</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>12342</v>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>2.64</v>
+        <v>2</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.367</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
-        <v>197</v>
-      </c>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
     </row>
@@ -5721,6 +5691,61 @@
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="B96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="C96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="D96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="E96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="F96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G96" t="n">
+        <v>42500</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>RMB</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>12342</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="n">
+        <v>197</v>
+      </c>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
